--- a/attendance/src/main/resources/TestData/Reports.xlsx
+++ b/attendance/src/main/resources/TestData/Reports.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90B9A7-E3A1-4DA6-B379-FFBBAACCF807}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C4E651-B4E1-4EA2-8271-EF8CBFF33458}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
     <sheet name="EarlyOut" sheetId="2" r:id="rId2"/>
     <sheet name="shiftsRoster" sheetId="3" r:id="rId3"/>
     <sheet name="WorkDuration" sheetId="5" r:id="rId4"/>
-    <sheet name="MarkIn" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="40">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -74,9 +73,6 @@
     <t>Test Late mark and Early out</t>
   </si>
   <si>
-    <t>MarkIn</t>
-  </si>
-  <si>
     <t>DayStatus</t>
   </si>
   <si>
@@ -123,6 +119,30 @@
   </si>
   <si>
     <t>Present Leave Weekoff Holiday</t>
+  </si>
+  <si>
+    <t>SinglePunchAbsent</t>
+  </si>
+  <si>
+    <t>SinglePunchAbsent Holiday Leave</t>
+  </si>
+  <si>
+    <t>SinglePunchAbsent Leave Weekoff</t>
+  </si>
+  <si>
+    <t>SinglePunchAbsent Holiday Weekoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SinglePunchAbsent Leave </t>
+  </si>
+  <si>
+    <t>SinglePunchAbsent Weekoff</t>
+  </si>
+  <si>
+    <t>SinglePunchAbsent Holiday</t>
+  </si>
+  <si>
+    <t>SinglePunchAbsent Leave Weekoff Holiday</t>
   </si>
 </sst>
 </file>
@@ -457,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,20 +727,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BB967F-EF38-4F4C-9DB2-81E3D6C626A0}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -740,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -748,10 +768,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -763,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -771,10 +791,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -786,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -794,10 +814,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -809,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -817,10 +837,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -832,7 +852,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -840,10 +860,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -855,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
@@ -863,10 +883,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -878,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -886,10 +906,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -901,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
@@ -909,10 +929,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -924,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -932,10 +952,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -947,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -955,10 +975,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -970,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -978,10 +998,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -993,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -1001,10 +1021,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1016,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -1024,10 +1044,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1039,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -1047,10 +1067,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -1062,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -1070,24 +1090,208 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1095,66 +1299,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB84E4C-6FC8-4F3B-BFA7-C1F2F49598C9}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>